--- a/src/main/resources/excel/automationPractice.xlsx
+++ b/src/main/resources/excel/automationPractice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="21">
   <si>
     <t>URL</t>
   </si>
@@ -90,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="581">
+  <fonts count="582">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +111,10 @@
       <color rgb="FF067D17"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2445,7 +2449,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="581">
+  <cellXfs count="582">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
@@ -3028,7 +3032,8 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="577" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="578" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="579" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="580" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
